--- a/celldex_postprocess_24hr_1mgkg_psilo_inj.xlsx
+++ b/celldex_postprocess_24hr_1mgkg_psilo_inj.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="15" documentId="11_2753F16DC102F727094271185312C6B9F8C7F353" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1664BDD8-2B98-404F-B981-33627C81C6F8}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Celllabels" sheetId="1" r:id="rId1"/>
@@ -1302,7 +1302,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -2005,7 +2007,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="X4" sqref="X4:X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3339,16 +3341,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
@@ -3357,6 +3349,16 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3366,8 +3368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4:W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3781,16 +3783,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
